--- a/src/Progress.xlsx
+++ b/src/Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -764,16 +764,13 @@
   </si>
   <si>
     <t>Done?</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -857,6 +854,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1043,7 +1048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1109,6 +1114,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1431,7 +1439,7 @@
   <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1471,11 +1479,9 @@
         <v>1</v>
       </c>
       <c r="B2" s="10">
-        <v>42837</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>60</v>
-      </c>
+        <v>42838</v>
+      </c>
+      <c r="C2" s="10"/>
       <c r="D2" s="3" t="s">
         <v>27</v>
       </c>
@@ -1490,7 +1496,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10">
-        <v>42838</v>
+        <v>42839</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="3" t="s">
@@ -1505,7 +1511,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>42839</v>
+        <v>42840</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="3" t="s">
@@ -1522,7 +1528,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10">
-        <v>42840</v>
+        <v>42841</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="3" t="s">
@@ -1537,7 +1543,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10">
-        <v>42841</v>
+        <v>42842</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="3" t="s">
@@ -1552,7 +1558,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10">
-        <v>42842</v>
+        <v>42843</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="3" t="s">
@@ -1569,7 +1575,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10">
-        <v>42843</v>
+        <v>42844</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="3" t="s">
@@ -1584,7 +1590,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10">
-        <v>42844</v>
+        <v>42845</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="3" t="s">
@@ -1599,7 +1605,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10">
-        <v>42845</v>
+        <v>42846</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="3" t="s">
@@ -1616,7 +1622,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10">
-        <v>42846</v>
+        <v>42847</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="3" t="s">
@@ -1631,7 +1637,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10">
-        <v>42847</v>
+        <v>42848</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="3" t="s">
@@ -1646,7 +1652,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10">
-        <v>42848</v>
+        <v>42849</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="3" t="s">
@@ -1663,7 +1669,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="10">
-        <v>42849</v>
+        <v>42850</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="3" t="s">
@@ -1678,7 +1684,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="10">
-        <v>42850</v>
+        <v>42851</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="3" t="s">
@@ -1693,7 +1699,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="10">
-        <v>42851</v>
+        <v>42852</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="3" t="s">
@@ -1708,7 +1714,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="10">
-        <v>42852</v>
+        <v>42853</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="3" t="s">
@@ -1725,7 +1731,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="10">
-        <v>42853</v>
+        <v>42854</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="3" t="s">
@@ -1740,7 +1746,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="10">
-        <v>42854</v>
+        <v>42855</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="3" t="s">
@@ -1755,7 +1761,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="10">
-        <v>42855</v>
+        <v>42856</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="3" t="s">
@@ -1772,7 +1778,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="10">
-        <v>42856</v>
+        <v>42857</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="3" t="s">
@@ -1787,7 +1793,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="10">
-        <v>42857</v>
+        <v>42858</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="3" t="s">
@@ -1804,7 +1810,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="10">
-        <v>42858</v>
+        <v>42859</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="3" t="s">
@@ -1819,7 +1825,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="10">
-        <v>42859</v>
+        <v>42860</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="3" t="s">
@@ -1834,7 +1840,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="10">
-        <v>42860</v>
+        <v>42861</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="3" t="s">
@@ -1851,7 +1857,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="10">
-        <v>42861</v>
+        <v>42862</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="3" t="s">
@@ -1866,7 +1872,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="10">
-        <v>42862</v>
+        <v>42863</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="3" t="s">
@@ -1880,8 +1886,8 @@
       <c r="A28" s="16">
         <v>27</v>
       </c>
-      <c r="B28" s="11">
-        <v>42863</v>
+      <c r="B28" s="23">
+        <v>42864</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="3" t="s">
@@ -1895,8 +1901,8 @@
       <c r="A29" s="16">
         <v>28</v>
       </c>
-      <c r="B29" s="11">
-        <v>42864</v>
+      <c r="B29" s="23">
+        <v>42865</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="3" t="s">
@@ -1910,8 +1916,8 @@
       <c r="A30" s="16">
         <v>29</v>
       </c>
-      <c r="B30" s="11">
-        <v>42865</v>
+      <c r="B30" s="23">
+        <v>42866</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="3" t="s">
@@ -1925,8 +1931,8 @@
       <c r="A31" s="16">
         <v>30</v>
       </c>
-      <c r="B31" s="11">
-        <v>42866</v>
+      <c r="B31" s="23">
+        <v>42867</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="3" t="s">
@@ -1940,8 +1946,8 @@
       <c r="A32" s="16">
         <v>31</v>
       </c>
-      <c r="B32" s="11">
-        <v>42867</v>
+      <c r="B32" s="23">
+        <v>42868</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="3" t="s">
@@ -1955,8 +1961,8 @@
       <c r="A33" s="16">
         <v>32</v>
       </c>
-      <c r="B33" s="11">
-        <v>42868</v>
+      <c r="B33" s="23">
+        <v>42869</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="3" t="s">
@@ -1970,8 +1976,8 @@
       <c r="A34" s="16">
         <v>33</v>
       </c>
-      <c r="B34" s="11">
-        <v>42869</v>
+      <c r="B34" s="23">
+        <v>42870</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="3" t="s">
@@ -1985,8 +1991,8 @@
       <c r="A35" s="16">
         <v>34</v>
       </c>
-      <c r="B35" s="11">
-        <v>42870</v>
+      <c r="B35" s="23">
+        <v>42871</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="3" t="s">
@@ -2000,8 +2006,8 @@
       <c r="A36" s="16">
         <v>35</v>
       </c>
-      <c r="B36" s="11">
-        <v>42871</v>
+      <c r="B36" s="23">
+        <v>42872</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="3" t="s">
@@ -2015,8 +2021,8 @@
       <c r="A37" s="16">
         <v>36</v>
       </c>
-      <c r="B37" s="11">
-        <v>42872</v>
+      <c r="B37" s="23">
+        <v>42873</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="3" t="s">
@@ -2030,8 +2036,8 @@
       <c r="A38" s="16">
         <v>37</v>
       </c>
-      <c r="B38" s="11">
-        <v>42873</v>
+      <c r="B38" s="23">
+        <v>42874</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="3" t="s">
@@ -2045,8 +2051,8 @@
       <c r="A39" s="16">
         <v>38</v>
       </c>
-      <c r="B39" s="11">
-        <v>42874</v>
+      <c r="B39" s="23">
+        <v>42875</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="3" t="s">
@@ -2060,8 +2066,8 @@
       <c r="A40" s="16">
         <v>39</v>
       </c>
-      <c r="B40" s="11">
-        <v>42875</v>
+      <c r="B40" s="23">
+        <v>42876</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="3" t="s">
@@ -2075,8 +2081,8 @@
       <c r="A41" s="16">
         <v>40</v>
       </c>
-      <c r="B41" s="11">
-        <v>42876</v>
+      <c r="B41" s="23">
+        <v>42877</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="3" t="s">
@@ -2090,8 +2096,8 @@
       <c r="A42" s="16">
         <v>41</v>
       </c>
-      <c r="B42" s="11">
-        <v>42877</v>
+      <c r="B42" s="23">
+        <v>42878</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="3" t="s">
@@ -2105,8 +2111,8 @@
       <c r="A43" s="16">
         <v>42</v>
       </c>
-      <c r="B43" s="11">
-        <v>42878</v>
+      <c r="B43" s="23">
+        <v>42879</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="3" t="s">
@@ -2120,8 +2126,8 @@
       <c r="A44" s="16">
         <v>43</v>
       </c>
-      <c r="B44" s="11">
-        <v>42879</v>
+      <c r="B44" s="23">
+        <v>42880</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="3" t="s">
@@ -2135,8 +2141,8 @@
       <c r="A45" s="16">
         <v>44</v>
       </c>
-      <c r="B45" s="11">
-        <v>42880</v>
+      <c r="B45" s="23">
+        <v>42881</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="3" t="s">
@@ -2150,8 +2156,8 @@
       <c r="A46" s="16">
         <v>45</v>
       </c>
-      <c r="B46" s="11">
-        <v>42881</v>
+      <c r="B46" s="23">
+        <v>42882</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="3" t="s">
@@ -2165,8 +2171,8 @@
       <c r="A47" s="16">
         <v>46</v>
       </c>
-      <c r="B47" s="11">
-        <v>42882</v>
+      <c r="B47" s="23">
+        <v>42883</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="3" t="s">
@@ -2180,8 +2186,8 @@
       <c r="A48" s="16">
         <v>47</v>
       </c>
-      <c r="B48" s="11">
-        <v>42883</v>
+      <c r="B48" s="23">
+        <v>42884</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="3" t="s">
@@ -2195,8 +2201,8 @@
       <c r="A49" s="16">
         <v>48</v>
       </c>
-      <c r="B49" s="11">
-        <v>42884</v>
+      <c r="B49" s="23">
+        <v>42885</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="3" t="s">
@@ -2211,7 +2217,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="18">
-        <v>42885</v>
+        <v>42886</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="3"/>
@@ -2224,7 +2230,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="18">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="3"/>
@@ -2237,7 +2243,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="18">
-        <v>42887</v>
+        <v>42888</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="3"/>
@@ -2250,7 +2256,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="18">
-        <v>42888</v>
+        <v>42889</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="3"/>
@@ -2263,7 +2269,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="18">
-        <v>42889</v>
+        <v>42890</v>
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="3"/>
@@ -2276,7 +2282,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="18">
-        <v>42890</v>
+        <v>42891</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="3"/>
@@ -2289,7 +2295,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="18">
-        <v>42891</v>
+        <v>42892</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="3"/>
@@ -2302,7 +2308,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="18">
-        <v>42892</v>
+        <v>42893</v>
       </c>
       <c r="C57" s="18"/>
       <c r="D57" s="3"/>
@@ -2315,7 +2321,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="18">
-        <v>42893</v>
+        <v>42894</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="3"/>
@@ -2328,7 +2334,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="18">
-        <v>42894</v>
+        <v>42895</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="3"/>
@@ -2341,7 +2347,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="18">
-        <v>42895</v>
+        <v>42896</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="3"/>
@@ -2354,7 +2360,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="18">
-        <v>42896</v>
+        <v>42897</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="3"/>
@@ -2367,7 +2373,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="18">
-        <v>42897</v>
+        <v>42898</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="3"/>
@@ -2380,7 +2386,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="18">
-        <v>42898</v>
+        <v>42899</v>
       </c>
       <c r="C63" s="18"/>
       <c r="D63" s="3"/>
@@ -2393,7 +2399,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="18">
-        <v>42899</v>
+        <v>42900</v>
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="3"/>
@@ -2406,7 +2412,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="18">
-        <v>42900</v>
+        <v>42901</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="3"/>
@@ -2419,7 +2425,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="18">
-        <v>42901</v>
+        <v>42902</v>
       </c>
       <c r="C66" s="18"/>
       <c r="D66" s="3"/>
@@ -2432,7 +2438,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="18">
-        <v>42902</v>
+        <v>42903</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="3"/>
@@ -2445,7 +2451,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="18">
-        <v>42903</v>
+        <v>42904</v>
       </c>
       <c r="C68" s="18"/>
       <c r="D68" s="3"/>
@@ -2458,7 +2464,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="18">
-        <v>42904</v>
+        <v>42905</v>
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="3"/>
@@ -2471,7 +2477,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="18">
-        <v>42905</v>
+        <v>42906</v>
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="3"/>
@@ -2484,7 +2490,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="18">
-        <v>42906</v>
+        <v>42907</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="3"/>
@@ -2497,7 +2503,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="18">
-        <v>42907</v>
+        <v>42908</v>
       </c>
       <c r="C72" s="18"/>
       <c r="D72" s="3"/>
@@ -2510,7 +2516,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="18">
-        <v>42908</v>
+        <v>42909</v>
       </c>
       <c r="C73" s="18"/>
       <c r="D73" s="3"/>
@@ -2523,7 +2529,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="18">
-        <v>42909</v>
+        <v>42910</v>
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="3"/>
@@ -2536,7 +2542,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="18">
-        <v>42910</v>
+        <v>42911</v>
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="3"/>
@@ -2549,7 +2555,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="18">
-        <v>42911</v>
+        <v>42912</v>
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="3"/>
@@ -2562,7 +2568,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="18">
-        <v>42912</v>
+        <v>42913</v>
       </c>
       <c r="C77" s="18"/>
       <c r="D77" s="3"/>
@@ -2575,7 +2581,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="18">
-        <v>42913</v>
+        <v>42914</v>
       </c>
       <c r="C78" s="18"/>
       <c r="D78" s="3"/>
@@ -2588,7 +2594,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="18">
-        <v>42914</v>
+        <v>42915</v>
       </c>
       <c r="C79" s="18"/>
       <c r="D79" s="3"/>
@@ -2601,7 +2607,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="18">
-        <v>42915</v>
+        <v>42916</v>
       </c>
       <c r="C80" s="18"/>
       <c r="D80" s="3"/>
@@ -2614,7 +2620,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="18">
-        <v>42916</v>
+        <v>42917</v>
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="3"/>
@@ -2627,7 +2633,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="18">
-        <v>42917</v>
+        <v>42918</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="3"/>
@@ -2640,7 +2646,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="18">
-        <v>42918</v>
+        <v>42919</v>
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="3"/>
@@ -2653,7 +2659,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="18">
-        <v>42919</v>
+        <v>42920</v>
       </c>
       <c r="C84" s="18"/>
       <c r="D84" s="3"/>
@@ -2666,7 +2672,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="18">
-        <v>42920</v>
+        <v>42921</v>
       </c>
       <c r="C85" s="18"/>
       <c r="D85" s="3"/>
@@ -2679,7 +2685,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="18">
-        <v>42921</v>
+        <v>42922</v>
       </c>
       <c r="C86" s="18"/>
       <c r="D86" s="3"/>
@@ -2692,7 +2698,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="18">
-        <v>42922</v>
+        <v>42923</v>
       </c>
       <c r="C87" s="18"/>
       <c r="D87" s="3"/>
@@ -2705,7 +2711,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="18">
-        <v>42923</v>
+        <v>42924</v>
       </c>
       <c r="C88" s="18"/>
       <c r="D88" s="3"/>
@@ -2718,7 +2724,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="18">
-        <v>42924</v>
+        <v>42925</v>
       </c>
       <c r="C89" s="18"/>
       <c r="D89" s="3"/>
@@ -2731,7 +2737,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="18">
-        <v>42925</v>
+        <v>42926</v>
       </c>
       <c r="C90" s="18"/>
       <c r="D90" s="3"/>
@@ -2744,7 +2750,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="18">
-        <v>42926</v>
+        <v>42927</v>
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="3"/>
@@ -2757,7 +2763,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="20">
-        <v>42927</v>
+        <v>42928</v>
       </c>
       <c r="C92" s="20"/>
       <c r="D92" s="3"/>
@@ -2770,7 +2776,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="20">
-        <v>42928</v>
+        <v>42929</v>
       </c>
       <c r="C93" s="20"/>
       <c r="D93" s="3"/>
@@ -2783,7 +2789,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="20">
-        <v>42929</v>
+        <v>42930</v>
       </c>
       <c r="C94" s="20"/>
       <c r="D94" s="3"/>
@@ -2796,7 +2802,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="20">
-        <v>42930</v>
+        <v>42931</v>
       </c>
       <c r="C95" s="20"/>
       <c r="D95" s="3"/>
@@ -2809,7 +2815,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="20">
-        <v>42931</v>
+        <v>42932</v>
       </c>
       <c r="C96" s="20"/>
       <c r="D96" s="3"/>
@@ -2822,7 +2828,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="20">
-        <v>42932</v>
+        <v>42933</v>
       </c>
       <c r="C97" s="20"/>
       <c r="D97" s="3"/>
@@ -2835,7 +2841,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="20">
-        <v>42933</v>
+        <v>42934</v>
       </c>
       <c r="C98" s="20"/>
       <c r="D98" s="3"/>
@@ -2848,7 +2854,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="20">
-        <v>42934</v>
+        <v>42935</v>
       </c>
       <c r="C99" s="20"/>
       <c r="D99" s="3"/>
@@ -2861,7 +2867,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="20">
-        <v>42935</v>
+        <v>42936</v>
       </c>
       <c r="C100" s="20"/>
       <c r="D100" s="3"/>
@@ -2874,7 +2880,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="20">
-        <v>42936</v>
+        <v>42937</v>
       </c>
       <c r="C101" s="20"/>
       <c r="D101" s="3"/>
@@ -2887,7 +2893,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="20">
-        <v>42937</v>
+        <v>42938</v>
       </c>
       <c r="C102" s="20"/>
       <c r="D102" s="3"/>
@@ -2900,7 +2906,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="20">
-        <v>42938</v>
+        <v>42939</v>
       </c>
       <c r="C103" s="20"/>
       <c r="D103" s="3"/>
@@ -2913,7 +2919,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="20">
-        <v>42939</v>
+        <v>42940</v>
       </c>
       <c r="C104" s="20"/>
       <c r="D104" s="3"/>
@@ -2926,7 +2932,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="20">
-        <v>42940</v>
+        <v>42941</v>
       </c>
       <c r="C105" s="20"/>
       <c r="D105" s="3"/>
@@ -2939,7 +2945,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="20">
-        <v>42941</v>
+        <v>42942</v>
       </c>
       <c r="C106" s="20"/>
       <c r="D106" s="3"/>
@@ -2952,7 +2958,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="20">
-        <v>42942</v>
+        <v>42943</v>
       </c>
       <c r="C107" s="20"/>
       <c r="D107" s="3"/>
@@ -2965,7 +2971,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="20">
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="C108" s="20"/>
       <c r="D108" s="3"/>
@@ -2978,7 +2984,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="20">
-        <v>42944</v>
+        <v>42945</v>
       </c>
       <c r="C109" s="20"/>
       <c r="D109" s="3"/>
@@ -2991,7 +2997,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="20">
-        <v>42945</v>
+        <v>42946</v>
       </c>
       <c r="C110" s="20"/>
       <c r="D110" s="3"/>
@@ -3004,7 +3010,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="22">
-        <v>42946</v>
+        <v>42947</v>
       </c>
       <c r="C111" s="22"/>
       <c r="D111" s="7"/>

--- a/src/Progress.xlsx
+++ b/src/Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -764,13 +764,28 @@
   </si>
   <si>
     <t>Done?</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>only first 7 questions done</t>
+  </si>
+  <si>
+    <t>No hashing algorithm done</t>
+  </si>
+  <si>
+    <t>Collections, Reflection, generics tut</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,6 +877,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -901,7 +924,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1000,21 +1023,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1048,7 +1056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1068,10 +1076,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1110,13 +1118,16 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1436,10 +1447,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1447,11 +1458,12 @@
     <col min="1" max="1" width="9.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="21.265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="44.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1470,18 +1482,23 @@
       <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="24" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="10">
         <v>42838</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="23" t="s">
+        <v>60</v>
+      </c>
       <c r="D2" s="3" t="s">
         <v>27</v>
       </c>
@@ -1489,41 +1506,48 @@
         <v>28</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G2" s="3"/>
+      <c r="H2" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10">
         <v>42839</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="23" t="s">
+        <v>60</v>
+      </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G3" s="3"/>
+      <c r="H3" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10">
         <v>42840</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G4" s="3"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1532,13 +1556,16 @@
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G5" s="3"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1547,13 +1574,14 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G6" s="3"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1562,15 +1590,14 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G7" s="3"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1579,13 +1606,16 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G8" s="3"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1594,13 +1624,14 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G9" s="3"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1609,15 +1640,14 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G10" s="3"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1626,13 +1656,16 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G11" s="3"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1641,13 +1674,14 @@
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G12" s="3"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1656,15 +1690,14 @@
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G13" s="3"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1673,13 +1706,16 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G14" s="3"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -1688,13 +1724,14 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G15" s="3"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -1703,13 +1740,14 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G16" s="3"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1718,15 +1756,14 @@
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G17" s="3"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -1735,13 +1772,16 @@
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G18" s="3"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1754,9 +1794,10 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G19" s="3"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -1765,15 +1806,14 @@
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G20" s="3"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1782,13 +1822,16 @@
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G21" s="3"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -1797,15 +1840,14 @@
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G22" s="3"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -1814,13 +1856,16 @@
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G23" s="3"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -1833,9 +1878,10 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G24" s="3"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1844,15 +1890,14 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G25" s="3"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1861,13 +1906,16 @@
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G26" s="3"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1880,352 +1928,378 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="16">
+      <c r="G27" s="3"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="10">
         <v>42864</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="3" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G28" s="3"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="16">
         <v>28</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="22">
         <v>42865</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G29" s="3"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="16">
         <v>29</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="22">
         <v>42866</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G30" s="3"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="16">
         <v>30</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="22">
         <v>42867</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G31" s="3"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="16">
         <v>31</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="22">
         <v>42868</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G32" s="3"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="16">
         <v>32</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="22">
         <v>42869</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G33" s="3"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="16">
         <v>33</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="22">
         <v>42870</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G34" s="3"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="16">
         <v>34</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="22">
         <v>42871</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G35" s="3"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="16">
         <v>35</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="22">
         <v>42872</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G36" s="3"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="16">
         <v>36</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="22">
         <v>42873</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G37" s="3"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="16">
         <v>37</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="22">
         <v>42874</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G38" s="3"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="16">
         <v>38</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="22">
         <v>42875</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G39" s="3"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="16">
         <v>39</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="22">
         <v>42876</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G40" s="3"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="16">
         <v>40</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="22">
         <v>42877</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G41" s="3"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="16">
         <v>41</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="22">
         <v>42878</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G42" s="3"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="16">
         <v>42</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="22">
         <v>42879</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G43" s="3"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="16">
         <v>43</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="22">
         <v>42880</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G44" s="3"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="16">
         <v>44</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="22">
         <v>42881</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G45" s="3"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="16">
         <v>45</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B46" s="22">
         <v>42882</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G46" s="3"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="16">
         <v>46</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="22">
         <v>42883</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G47" s="3"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="16">
         <v>47</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="22">
         <v>42884</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G48" s="3"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="16">
         <v>48</v>
       </c>
-      <c r="B49" s="23">
+      <c r="B49" s="22">
         <v>42885</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="17">
+      <c r="G49" s="3"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="16">
         <v>49</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="22">
         <v>42886</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="3"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G50" s="3"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="17">
         <v>50</v>
       </c>
@@ -2236,9 +2310,10 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G51" s="3"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="17">
         <v>51</v>
       </c>
@@ -2249,9 +2324,10 @@
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G52" s="3"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="17">
         <v>52</v>
       </c>
@@ -2262,9 +2338,10 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G53" s="3"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="17">
         <v>53</v>
       </c>
@@ -2275,9 +2352,10 @@
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="6"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G54" s="3"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="17">
         <v>54</v>
       </c>
@@ -2288,9 +2366,10 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G55" s="3"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="17">
         <v>55</v>
       </c>
@@ -2301,9 +2380,10 @@
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G56" s="3"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="17">
         <v>56</v>
       </c>
@@ -2314,9 +2394,10 @@
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="6"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G57" s="3"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="17">
         <v>57</v>
       </c>
@@ -2327,9 +2408,10 @@
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="6"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G58" s="3"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="17">
         <v>58</v>
       </c>
@@ -2340,9 +2422,10 @@
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="6"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G59" s="3"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="17">
         <v>59</v>
       </c>
@@ -2353,9 +2436,10 @@
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="6"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G60" s="3"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="17">
         <v>60</v>
       </c>
@@ -2366,9 +2450,10 @@
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="6"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G61" s="3"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="17">
         <v>61</v>
       </c>
@@ -2379,9 +2464,10 @@
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="6"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G62" s="3"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="17">
         <v>62</v>
       </c>
@@ -2392,9 +2478,10 @@
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="6"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G63" s="3"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="17">
         <v>63</v>
       </c>
@@ -2405,9 +2492,10 @@
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="6"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G64" s="3"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="17">
         <v>64</v>
       </c>
@@ -2418,9 +2506,10 @@
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="6"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G65" s="3"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="17">
         <v>65</v>
       </c>
@@ -2431,9 +2520,10 @@
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
-      <c r="G66" s="6"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G66" s="3"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="17">
         <v>66</v>
       </c>
@@ -2444,9 +2534,10 @@
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="6"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G67" s="3"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="17">
         <v>67</v>
       </c>
@@ -2457,9 +2548,10 @@
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
-      <c r="G68" s="6"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G68" s="3"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="17">
         <v>68</v>
       </c>
@@ -2470,9 +2562,10 @@
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="6"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G69" s="3"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="17">
         <v>69</v>
       </c>
@@ -2483,9 +2576,10 @@
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="6"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G70" s="3"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="17">
         <v>70</v>
       </c>
@@ -2496,9 +2590,10 @@
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
-      <c r="G71" s="6"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G71" s="3"/>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="17">
         <v>71</v>
       </c>
@@ -2509,9 +2604,10 @@
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="6"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G72" s="3"/>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="17">
         <v>72</v>
       </c>
@@ -2522,9 +2618,10 @@
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="6"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G73" s="3"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="17">
         <v>73</v>
       </c>
@@ -2535,9 +2632,10 @@
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
-      <c r="G74" s="6"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G74" s="3"/>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="17">
         <v>74</v>
       </c>
@@ -2548,9 +2646,10 @@
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
-      <c r="G75" s="6"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G75" s="3"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="17">
         <v>75</v>
       </c>
@@ -2561,9 +2660,10 @@
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
-      <c r="G76" s="6"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G76" s="3"/>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="17">
         <v>76</v>
       </c>
@@ -2574,9 +2674,10 @@
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="6"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G77" s="3"/>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="17">
         <v>77</v>
       </c>
@@ -2587,9 +2688,10 @@
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
-      <c r="G78" s="6"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G78" s="3"/>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="17">
         <v>78</v>
       </c>
@@ -2600,9 +2702,10 @@
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
-      <c r="G79" s="6"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G79" s="3"/>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="17">
         <v>79</v>
       </c>
@@ -2613,9 +2716,10 @@
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
-      <c r="G80" s="6"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G80" s="3"/>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="17">
         <v>80</v>
       </c>
@@ -2626,9 +2730,10 @@
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
-      <c r="G81" s="6"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G81" s="3"/>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="17">
         <v>81</v>
       </c>
@@ -2639,9 +2744,10 @@
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="6"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G82" s="3"/>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="17">
         <v>82</v>
       </c>
@@ -2652,9 +2758,10 @@
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
-      <c r="G83" s="6"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G83" s="3"/>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="17">
         <v>83</v>
       </c>
@@ -2665,9 +2772,10 @@
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
-      <c r="G84" s="6"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G84" s="3"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="17">
         <v>84</v>
       </c>
@@ -2678,9 +2786,10 @@
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
-      <c r="G85" s="6"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G85" s="3"/>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="17">
         <v>85</v>
       </c>
@@ -2691,9 +2800,10 @@
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
-      <c r="G86" s="6"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G86" s="3"/>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="17">
         <v>86</v>
       </c>
@@ -2704,9 +2814,10 @@
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
-      <c r="G87" s="6"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G87" s="3"/>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="17">
         <v>87</v>
       </c>
@@ -2717,9 +2828,10 @@
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
-      <c r="G88" s="6"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G88" s="3"/>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="17">
         <v>88</v>
       </c>
@@ -2730,9 +2842,10 @@
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
-      <c r="G89" s="6"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G89" s="3"/>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="17">
         <v>89</v>
       </c>
@@ -2743,9 +2856,10 @@
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
-      <c r="G90" s="6"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G90" s="3"/>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" s="17">
         <v>90</v>
       </c>
@@ -2756,22 +2870,24 @@
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
-      <c r="G91" s="6"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A92" s="19">
+      <c r="G91" s="3"/>
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A92" s="17">
         <v>91</v>
       </c>
-      <c r="B92" s="20">
+      <c r="B92" s="18">
         <v>42928</v>
       </c>
-      <c r="C92" s="20"/>
+      <c r="C92" s="18"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
-      <c r="G92" s="6"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G92" s="3"/>
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" s="19">
         <v>92</v>
       </c>
@@ -2782,9 +2898,10 @@
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
-      <c r="G93" s="6"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G93" s="3"/>
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" s="19">
         <v>93</v>
       </c>
@@ -2795,9 +2912,10 @@
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
-      <c r="G94" s="6"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G94" s="3"/>
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" s="19">
         <v>94</v>
       </c>
@@ -2808,9 +2926,10 @@
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
-      <c r="G95" s="6"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G95" s="3"/>
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" s="19">
         <v>95</v>
       </c>
@@ -2821,9 +2940,10 @@
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
-      <c r="G96" s="6"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G96" s="3"/>
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" s="19">
         <v>96</v>
       </c>
@@ -2834,9 +2954,10 @@
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
-      <c r="G97" s="6"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G97" s="3"/>
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98" s="19">
         <v>97</v>
       </c>
@@ -2847,9 +2968,10 @@
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
-      <c r="G98" s="6"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G98" s="3"/>
+      <c r="H98" s="6"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" s="19">
         <v>98</v>
       </c>
@@ -2860,9 +2982,10 @@
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
-      <c r="G99" s="6"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G99" s="3"/>
+      <c r="H99" s="6"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" s="19">
         <v>99</v>
       </c>
@@ -2873,9 +2996,10 @@
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="6"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G100" s="3"/>
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" s="19">
         <v>100</v>
       </c>
@@ -2886,9 +3010,10 @@
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
-      <c r="G101" s="6"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G101" s="3"/>
+      <c r="H101" s="6"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" s="19">
         <v>101</v>
       </c>
@@ -2899,9 +3024,10 @@
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
-      <c r="G102" s="6"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G102" s="3"/>
+      <c r="H102" s="6"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" s="19">
         <v>102</v>
       </c>
@@ -2912,9 +3038,10 @@
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
-      <c r="G103" s="6"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G103" s="3"/>
+      <c r="H103" s="6"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" s="19">
         <v>103</v>
       </c>
@@ -2925,9 +3052,10 @@
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
-      <c r="G104" s="6"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G104" s="3"/>
+      <c r="H104" s="6"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="19">
         <v>104</v>
       </c>
@@ -2938,9 +3066,10 @@
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
-      <c r="G105" s="6"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G105" s="3"/>
+      <c r="H105" s="6"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" s="19">
         <v>105</v>
       </c>
@@ -2951,9 +3080,10 @@
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
-      <c r="G106" s="6"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G106" s="3"/>
+      <c r="H106" s="6"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" s="19">
         <v>106</v>
       </c>
@@ -2964,9 +3094,10 @@
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
-      <c r="G107" s="6"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G107" s="3"/>
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" s="19">
         <v>107</v>
       </c>
@@ -2977,9 +3108,10 @@
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
-      <c r="G108" s="6"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G108" s="3"/>
+      <c r="H108" s="6"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" s="19">
         <v>108</v>
       </c>
@@ -2990,9 +3122,10 @@
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
-      <c r="G109" s="6"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G109" s="3"/>
+      <c r="H109" s="6"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110" s="19">
         <v>109</v>
       </c>
@@ -3003,20 +3136,22 @@
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
-      <c r="G110" s="6"/>
-    </row>
-    <row r="111" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A111" s="21">
+      <c r="G110" s="3"/>
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A111" s="19">
         <v>110</v>
       </c>
-      <c r="B111" s="22">
+      <c r="B111" s="21">
         <v>42947</v>
       </c>
-      <c r="C111" s="22"/>
+      <c r="C111" s="21"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
-      <c r="G111" s="8"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Progress.xlsx
+++ b/src/Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -764,9 +764,6 @@
   </si>
   <si>
     <t>Done?</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>Comments</t>
@@ -924,7 +921,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1052,11 +1049,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1128,6 +1140,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1447,10 +1462,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1486,7 +1501,7 @@
         <v>58</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -1494,11 +1509,9 @@
         <v>1</v>
       </c>
       <c r="B2" s="10">
-        <v>42838</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>60</v>
-      </c>
+        <v>42843</v>
+      </c>
+      <c r="C2" s="23"/>
       <c r="D2" s="3" t="s">
         <v>27</v>
       </c>
@@ -1508,7 +1521,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -1516,11 +1529,9 @@
         <v>2</v>
       </c>
       <c r="B3" s="10">
-        <v>42839</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>60</v>
-      </c>
+        <v>42844</v>
+      </c>
+      <c r="C3" s="23"/>
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1528,7 +1539,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -1536,11 +1547,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>42840</v>
+        <v>42845</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1552,7 +1563,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10">
-        <v>42841</v>
+        <v>42846</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="3" t="s">
@@ -1570,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10">
-        <v>42842</v>
+        <v>42847</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="3" t="s">
@@ -1586,7 +1597,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10">
-        <v>42843</v>
+        <v>42848</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="3" t="s">
@@ -1602,7 +1613,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10">
-        <v>42844</v>
+        <v>42849</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="3" t="s">
@@ -1620,7 +1631,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10">
-        <v>42845</v>
+        <v>42850</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="3" t="s">
@@ -1636,7 +1647,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10">
-        <v>42846</v>
+        <v>42851</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="3" t="s">
@@ -1652,7 +1663,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10">
-        <v>42847</v>
+        <v>42852</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="3" t="s">
@@ -1670,7 +1681,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10">
-        <v>42848</v>
+        <v>42853</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="3" t="s">
@@ -1686,7 +1697,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10">
-        <v>42849</v>
+        <v>42854</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="3" t="s">
@@ -1702,7 +1713,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="10">
-        <v>42850</v>
+        <v>42855</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="3" t="s">
@@ -1720,7 +1731,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="10">
-        <v>42851</v>
+        <v>42856</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="3" t="s">
@@ -1736,7 +1747,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="10">
-        <v>42852</v>
+        <v>42857</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="3" t="s">
@@ -1752,7 +1763,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="10">
-        <v>42853</v>
+        <v>42858</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="3" t="s">
@@ -1768,7 +1779,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="10">
-        <v>42854</v>
+        <v>42859</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="3" t="s">
@@ -1786,7 +1797,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="10">
-        <v>42855</v>
+        <v>42860</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="3" t="s">
@@ -1802,7 +1813,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="10">
-        <v>42856</v>
+        <v>42861</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="3" t="s">
@@ -1818,7 +1829,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="10">
-        <v>42857</v>
+        <v>42862</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="3" t="s">
@@ -1836,7 +1847,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="10">
-        <v>42858</v>
+        <v>42863</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="3" t="s">
@@ -1852,7 +1863,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="10">
-        <v>42859</v>
+        <v>42864</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="3" t="s">
@@ -1870,7 +1881,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="10">
-        <v>42860</v>
+        <v>42865</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="3" t="s">
@@ -1886,7 +1897,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="10">
-        <v>42861</v>
+        <v>42866</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="3" t="s">
@@ -1902,7 +1913,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="10">
-        <v>42862</v>
+        <v>42867</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="3" t="s">
@@ -1920,7 +1931,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="10">
-        <v>42863</v>
+        <v>42868</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="3" t="s">
@@ -1936,7 +1947,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="10">
-        <v>42864</v>
+        <v>42869</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="3" t="s">
@@ -1952,7 +1963,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="22">
-        <v>42865</v>
+        <v>42870</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="3" t="s">
@@ -1968,7 +1979,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="22">
-        <v>42866</v>
+        <v>42871</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="3" t="s">
@@ -1984,7 +1995,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="22">
-        <v>42867</v>
+        <v>42872</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="3" t="s">
@@ -2000,7 +2011,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="22">
-        <v>42868</v>
+        <v>42873</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="3" t="s">
@@ -2016,7 +2027,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="22">
-        <v>42869</v>
+        <v>42874</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="3" t="s">
@@ -2032,7 +2043,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="22">
-        <v>42870</v>
+        <v>42875</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="3" t="s">
@@ -2048,7 +2059,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="22">
-        <v>42871</v>
+        <v>42876</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="3" t="s">
@@ -2064,7 +2075,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="22">
-        <v>42872</v>
+        <v>42877</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="3" t="s">
@@ -2080,7 +2091,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="22">
-        <v>42873</v>
+        <v>42878</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="3" t="s">
@@ -2096,7 +2107,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="22">
-        <v>42874</v>
+        <v>42879</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="3" t="s">
@@ -2112,7 +2123,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="22">
-        <v>42875</v>
+        <v>42880</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="3" t="s">
@@ -2128,7 +2139,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="22">
-        <v>42876</v>
+        <v>42881</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="3" t="s">
@@ -2144,7 +2155,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="22">
-        <v>42877</v>
+        <v>42882</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="3" t="s">
@@ -2160,7 +2171,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="22">
-        <v>42878</v>
+        <v>42883</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="3" t="s">
@@ -2176,7 +2187,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="22">
-        <v>42879</v>
+        <v>42884</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="3" t="s">
@@ -2192,7 +2203,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="22">
-        <v>42880</v>
+        <v>42885</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="3" t="s">
@@ -2208,7 +2219,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="22">
-        <v>42881</v>
+        <v>42886</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="3" t="s">
@@ -2224,7 +2235,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="22">
-        <v>42882</v>
+        <v>42887</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="3" t="s">
@@ -2240,7 +2251,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="22">
-        <v>42883</v>
+        <v>42888</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="3" t="s">
@@ -2256,7 +2267,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="22">
-        <v>42884</v>
+        <v>42889</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="3" t="s">
@@ -2272,7 +2283,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="22">
-        <v>42885</v>
+        <v>42890</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="3" t="s">
@@ -2288,7 +2299,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="22">
-        <v>42886</v>
+        <v>42891</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="3" t="s">
@@ -2304,7 +2315,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="18">
-        <v>42887</v>
+        <v>42892</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="3"/>
@@ -2318,7 +2329,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="18">
-        <v>42888</v>
+        <v>42893</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="3"/>
@@ -2332,7 +2343,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="18">
-        <v>42889</v>
+        <v>42894</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="3"/>
@@ -2346,7 +2357,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="18">
-        <v>42890</v>
+        <v>42895</v>
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="3"/>
@@ -2360,7 +2371,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="18">
-        <v>42891</v>
+        <v>42896</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="3"/>
@@ -2374,7 +2385,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="18">
-        <v>42892</v>
+        <v>42897</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="3"/>
@@ -2388,7 +2399,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="18">
-        <v>42893</v>
+        <v>42898</v>
       </c>
       <c r="C57" s="18"/>
       <c r="D57" s="3"/>
@@ -2402,7 +2413,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="18">
-        <v>42894</v>
+        <v>42899</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="3"/>
@@ -2416,7 +2427,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="18">
-        <v>42895</v>
+        <v>42900</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="3"/>
@@ -2430,7 +2441,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="18">
-        <v>42896</v>
+        <v>42901</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="3"/>
@@ -2444,7 +2455,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="18">
-        <v>42897</v>
+        <v>42902</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="3"/>
@@ -2458,7 +2469,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="18">
-        <v>42898</v>
+        <v>42903</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="3"/>
@@ -2472,7 +2483,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="18">
-        <v>42899</v>
+        <v>42904</v>
       </c>
       <c r="C63" s="18"/>
       <c r="D63" s="3"/>
@@ -2486,7 +2497,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="18">
-        <v>42900</v>
+        <v>42905</v>
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="3"/>
@@ -2500,7 +2511,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="18">
-        <v>42901</v>
+        <v>42906</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="3"/>
@@ -2514,7 +2525,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="18">
-        <v>42902</v>
+        <v>42907</v>
       </c>
       <c r="C66" s="18"/>
       <c r="D66" s="3"/>
@@ -2528,7 +2539,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="18">
-        <v>42903</v>
+        <v>42908</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="3"/>
@@ -2542,7 +2553,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="18">
-        <v>42904</v>
+        <v>42909</v>
       </c>
       <c r="C68" s="18"/>
       <c r="D68" s="3"/>
@@ -2556,7 +2567,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="18">
-        <v>42905</v>
+        <v>42910</v>
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="3"/>
@@ -2570,7 +2581,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="18">
-        <v>42906</v>
+        <v>42911</v>
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="3"/>
@@ -2584,7 +2595,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="18">
-        <v>42907</v>
+        <v>42912</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="3"/>
@@ -2598,7 +2609,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="18">
-        <v>42908</v>
+        <v>42913</v>
       </c>
       <c r="C72" s="18"/>
       <c r="D72" s="3"/>
@@ -2612,7 +2623,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="18">
-        <v>42909</v>
+        <v>42914</v>
       </c>
       <c r="C73" s="18"/>
       <c r="D73" s="3"/>
@@ -2626,7 +2637,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="18">
-        <v>42910</v>
+        <v>42915</v>
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="3"/>
@@ -2640,7 +2651,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="18">
-        <v>42911</v>
+        <v>42916</v>
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="3"/>
@@ -2654,7 +2665,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="18">
-        <v>42912</v>
+        <v>42917</v>
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="3"/>
@@ -2668,7 +2679,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="18">
-        <v>42913</v>
+        <v>42918</v>
       </c>
       <c r="C77" s="18"/>
       <c r="D77" s="3"/>
@@ -2682,7 +2693,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="18">
-        <v>42914</v>
+        <v>42919</v>
       </c>
       <c r="C78" s="18"/>
       <c r="D78" s="3"/>
@@ -2696,7 +2707,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="18">
-        <v>42915</v>
+        <v>42920</v>
       </c>
       <c r="C79" s="18"/>
       <c r="D79" s="3"/>
@@ -2710,7 +2721,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="18">
-        <v>42916</v>
+        <v>42921</v>
       </c>
       <c r="C80" s="18"/>
       <c r="D80" s="3"/>
@@ -2724,7 +2735,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="18">
-        <v>42917</v>
+        <v>42922</v>
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="3"/>
@@ -2738,7 +2749,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="18">
-        <v>42918</v>
+        <v>42923</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="3"/>
@@ -2752,7 +2763,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="18">
-        <v>42919</v>
+        <v>42924</v>
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="3"/>
@@ -2766,7 +2777,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="18">
-        <v>42920</v>
+        <v>42925</v>
       </c>
       <c r="C84" s="18"/>
       <c r="D84" s="3"/>
@@ -2780,7 +2791,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="18">
-        <v>42921</v>
+        <v>42926</v>
       </c>
       <c r="C85" s="18"/>
       <c r="D85" s="3"/>
@@ -2794,7 +2805,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="18">
-        <v>42922</v>
+        <v>42927</v>
       </c>
       <c r="C86" s="18"/>
       <c r="D86" s="3"/>
@@ -2808,7 +2819,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="18">
-        <v>42923</v>
+        <v>42928</v>
       </c>
       <c r="C87" s="18"/>
       <c r="D87" s="3"/>
@@ -2822,7 +2833,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="18">
-        <v>42924</v>
+        <v>42929</v>
       </c>
       <c r="C88" s="18"/>
       <c r="D88" s="3"/>
@@ -2836,7 +2847,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="18">
-        <v>42925</v>
+        <v>42930</v>
       </c>
       <c r="C89" s="18"/>
       <c r="D89" s="3"/>
@@ -2850,7 +2861,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="18">
-        <v>42926</v>
+        <v>42931</v>
       </c>
       <c r="C90" s="18"/>
       <c r="D90" s="3"/>
@@ -2864,7 +2875,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="18">
-        <v>42927</v>
+        <v>42932</v>
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="3"/>
@@ -2878,7 +2889,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="18">
-        <v>42928</v>
+        <v>42933</v>
       </c>
       <c r="C92" s="18"/>
       <c r="D92" s="3"/>
@@ -2892,7 +2903,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="20">
-        <v>42929</v>
+        <v>42934</v>
       </c>
       <c r="C93" s="20"/>
       <c r="D93" s="3"/>
@@ -2906,7 +2917,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="20">
-        <v>42930</v>
+        <v>42935</v>
       </c>
       <c r="C94" s="20"/>
       <c r="D94" s="3"/>
@@ -2920,7 +2931,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="20">
-        <v>42931</v>
+        <v>42936</v>
       </c>
       <c r="C95" s="20"/>
       <c r="D95" s="3"/>
@@ -2934,7 +2945,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="20">
-        <v>42932</v>
+        <v>42937</v>
       </c>
       <c r="C96" s="20"/>
       <c r="D96" s="3"/>
@@ -2948,7 +2959,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="20">
-        <v>42933</v>
+        <v>42938</v>
       </c>
       <c r="C97" s="20"/>
       <c r="D97" s="3"/>
@@ -2962,7 +2973,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="20">
-        <v>42934</v>
+        <v>42939</v>
       </c>
       <c r="C98" s="20"/>
       <c r="D98" s="3"/>
@@ -2976,7 +2987,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="20">
-        <v>42935</v>
+        <v>42940</v>
       </c>
       <c r="C99" s="20"/>
       <c r="D99" s="3"/>
@@ -2990,7 +3001,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="20">
-        <v>42936</v>
+        <v>42941</v>
       </c>
       <c r="C100" s="20"/>
       <c r="D100" s="3"/>
@@ -3004,7 +3015,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="20">
-        <v>42937</v>
+        <v>42942</v>
       </c>
       <c r="C101" s="20"/>
       <c r="D101" s="3"/>
@@ -3018,7 +3029,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="20">
-        <v>42938</v>
+        <v>42943</v>
       </c>
       <c r="C102" s="20"/>
       <c r="D102" s="3"/>
@@ -3032,7 +3043,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="20">
-        <v>42939</v>
+        <v>42944</v>
       </c>
       <c r="C103" s="20"/>
       <c r="D103" s="3"/>
@@ -3046,7 +3057,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="20">
-        <v>42940</v>
+        <v>42945</v>
       </c>
       <c r="C104" s="20"/>
       <c r="D104" s="3"/>
@@ -3060,7 +3071,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="20">
-        <v>42941</v>
+        <v>42946</v>
       </c>
       <c r="C105" s="20"/>
       <c r="D105" s="3"/>
@@ -3069,89 +3080,19 @@
       <c r="G105" s="3"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A106" s="19">
+    <row r="106" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A106" s="25">
         <v>105</v>
       </c>
-      <c r="B106" s="20">
-        <v>42942</v>
-      </c>
-      <c r="C106" s="20"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="6"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A107" s="19">
-        <v>106</v>
-      </c>
-      <c r="B107" s="20">
-        <v>42943</v>
-      </c>
-      <c r="C107" s="20"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="6"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A108" s="19">
-        <v>107</v>
-      </c>
-      <c r="B108" s="20">
-        <v>42944</v>
-      </c>
-      <c r="C108" s="20"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="6"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A109" s="19">
-        <v>108</v>
-      </c>
-      <c r="B109" s="20">
-        <v>42945</v>
-      </c>
-      <c r="C109" s="20"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="6"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A110" s="19">
-        <v>109</v>
-      </c>
-      <c r="B110" s="20">
-        <v>42946</v>
-      </c>
-      <c r="C110" s="20"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="6"/>
-    </row>
-    <row r="111" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A111" s="19">
-        <v>110</v>
-      </c>
-      <c r="B111" s="21">
+      <c r="B106" s="21">
         <v>42947</v>
       </c>
-      <c r="C111" s="21"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="8"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Progress.xlsx
+++ b/src/Progress.xlsx
@@ -1462,10 +1462,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10">
-        <v>42843</v>
+        <v>42845</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="3" t="s">
@@ -1529,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10">
-        <v>42844</v>
+        <v>42846</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="3" t="s">
@@ -1547,7 +1547,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>42845</v>
+        <v>42847</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="3" t="s">
@@ -1563,7 +1563,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10">
-        <v>42846</v>
+        <v>42848</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="3" t="s">
@@ -1581,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10">
-        <v>42847</v>
+        <v>42849</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="3" t="s">
@@ -1597,7 +1597,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10">
-        <v>42848</v>
+        <v>42850</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="3" t="s">
@@ -1613,7 +1613,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10">
-        <v>42849</v>
+        <v>42851</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="3" t="s">
@@ -1631,7 +1631,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10">
-        <v>42850</v>
+        <v>42852</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="3" t="s">
@@ -1647,7 +1647,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10">
-        <v>42851</v>
+        <v>42853</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="3" t="s">
@@ -1663,7 +1663,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10">
-        <v>42852</v>
+        <v>42854</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="3" t="s">
@@ -1681,7 +1681,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10">
-        <v>42853</v>
+        <v>42855</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="3" t="s">
@@ -1697,7 +1697,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10">
-        <v>42854</v>
+        <v>42856</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="3" t="s">
@@ -1713,7 +1713,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="10">
-        <v>42855</v>
+        <v>42857</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="3" t="s">
@@ -1731,7 +1731,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="10">
-        <v>42856</v>
+        <v>42858</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="3" t="s">
@@ -1747,7 +1747,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="10">
-        <v>42857</v>
+        <v>42859</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="3" t="s">
@@ -1763,7 +1763,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="10">
-        <v>42858</v>
+        <v>42860</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="3" t="s">
@@ -1779,7 +1779,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="10">
-        <v>42859</v>
+        <v>42861</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="3" t="s">
@@ -1797,7 +1797,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="10">
-        <v>42860</v>
+        <v>42862</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="3" t="s">
@@ -1813,7 +1813,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="10">
-        <v>42861</v>
+        <v>42863</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="3" t="s">
@@ -1829,7 +1829,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="10">
-        <v>42862</v>
+        <v>42864</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="3" t="s">
@@ -1847,7 +1847,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="10">
-        <v>42863</v>
+        <v>42865</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="3" t="s">
@@ -1863,7 +1863,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="10">
-        <v>42864</v>
+        <v>42866</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="3" t="s">
@@ -1881,7 +1881,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="10">
-        <v>42865</v>
+        <v>42867</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="3" t="s">
@@ -1897,7 +1897,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="10">
-        <v>42866</v>
+        <v>42868</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="3" t="s">
@@ -1913,7 +1913,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="10">
-        <v>42867</v>
+        <v>42869</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="3" t="s">
@@ -1931,7 +1931,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="10">
-        <v>42868</v>
+        <v>42870</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="3" t="s">
@@ -1947,7 +1947,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="10">
-        <v>42869</v>
+        <v>42871</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="3" t="s">
@@ -1963,7 +1963,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="22">
-        <v>42870</v>
+        <v>42872</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="3" t="s">
@@ -1979,7 +1979,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="22">
-        <v>42871</v>
+        <v>42873</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="3" t="s">
@@ -1995,7 +1995,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="22">
-        <v>42872</v>
+        <v>42874</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="3" t="s">
@@ -2011,7 +2011,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="22">
-        <v>42873</v>
+        <v>42875</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="3" t="s">
@@ -2027,7 +2027,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="22">
-        <v>42874</v>
+        <v>42876</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="3" t="s">
@@ -2043,7 +2043,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="22">
-        <v>42875</v>
+        <v>42877</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="3" t="s">
@@ -2059,7 +2059,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="22">
-        <v>42876</v>
+        <v>42878</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="3" t="s">
@@ -2075,7 +2075,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="22">
-        <v>42877</v>
+        <v>42879</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="3" t="s">
@@ -2091,7 +2091,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="22">
-        <v>42878</v>
+        <v>42880</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="3" t="s">
@@ -2107,7 +2107,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="22">
-        <v>42879</v>
+        <v>42881</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="3" t="s">
@@ -2123,7 +2123,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="22">
-        <v>42880</v>
+        <v>42882</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="3" t="s">
@@ -2139,7 +2139,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="22">
-        <v>42881</v>
+        <v>42883</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="3" t="s">
@@ -2155,7 +2155,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="22">
-        <v>42882</v>
+        <v>42884</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="3" t="s">
@@ -2171,7 +2171,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="22">
-        <v>42883</v>
+        <v>42885</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="3" t="s">
@@ -2187,7 +2187,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="22">
-        <v>42884</v>
+        <v>42886</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="3" t="s">
@@ -2203,7 +2203,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="22">
-        <v>42885</v>
+        <v>42887</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="3" t="s">
@@ -2219,7 +2219,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="22">
-        <v>42886</v>
+        <v>42888</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="3" t="s">
@@ -2235,7 +2235,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="22">
-        <v>42887</v>
+        <v>42889</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="3" t="s">
@@ -2251,7 +2251,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="22">
-        <v>42888</v>
+        <v>42890</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="3" t="s">
@@ -2267,7 +2267,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="22">
-        <v>42889</v>
+        <v>42891</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="3" t="s">
@@ -2283,7 +2283,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="22">
-        <v>42890</v>
+        <v>42892</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="3" t="s">
@@ -2299,7 +2299,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="22">
-        <v>42891</v>
+        <v>42893</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="3" t="s">
@@ -2315,7 +2315,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="18">
-        <v>42892</v>
+        <v>42894</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="3"/>
@@ -2329,7 +2329,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="18">
-        <v>42893</v>
+        <v>42895</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="3"/>
@@ -2343,7 +2343,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="18">
-        <v>42894</v>
+        <v>42896</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="3"/>
@@ -2357,7 +2357,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="18">
-        <v>42895</v>
+        <v>42897</v>
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="3"/>
@@ -2371,7 +2371,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="18">
-        <v>42896</v>
+        <v>42898</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="3"/>
@@ -2385,7 +2385,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="18">
-        <v>42897</v>
+        <v>42899</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="3"/>
@@ -2399,7 +2399,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="18">
-        <v>42898</v>
+        <v>42900</v>
       </c>
       <c r="C57" s="18"/>
       <c r="D57" s="3"/>
@@ -2413,7 +2413,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="18">
-        <v>42899</v>
+        <v>42901</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="3"/>
@@ -2427,7 +2427,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="18">
-        <v>42900</v>
+        <v>42902</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="3"/>
@@ -2441,7 +2441,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="18">
-        <v>42901</v>
+        <v>42903</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="3"/>
@@ -2455,7 +2455,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="18">
-        <v>42902</v>
+        <v>42904</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="3"/>
@@ -2469,7 +2469,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="18">
-        <v>42903</v>
+        <v>42905</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="3"/>
@@ -2483,7 +2483,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="18">
-        <v>42904</v>
+        <v>42906</v>
       </c>
       <c r="C63" s="18"/>
       <c r="D63" s="3"/>
@@ -2497,7 +2497,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="18">
-        <v>42905</v>
+        <v>42907</v>
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="3"/>
@@ -2511,7 +2511,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="18">
-        <v>42906</v>
+        <v>42908</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="3"/>
@@ -2525,7 +2525,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="18">
-        <v>42907</v>
+        <v>42909</v>
       </c>
       <c r="C66" s="18"/>
       <c r="D66" s="3"/>
@@ -2539,7 +2539,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="18">
-        <v>42908</v>
+        <v>42910</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="3"/>
@@ -2553,7 +2553,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="18">
-        <v>42909</v>
+        <v>42911</v>
       </c>
       <c r="C68" s="18"/>
       <c r="D68" s="3"/>
@@ -2567,7 +2567,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="18">
-        <v>42910</v>
+        <v>42912</v>
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="3"/>
@@ -2581,7 +2581,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="18">
-        <v>42911</v>
+        <v>42913</v>
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="3"/>
@@ -2595,7 +2595,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="18">
-        <v>42912</v>
+        <v>42914</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="3"/>
@@ -2609,7 +2609,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="18">
-        <v>42913</v>
+        <v>42915</v>
       </c>
       <c r="C72" s="18"/>
       <c r="D72" s="3"/>
@@ -2623,7 +2623,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="18">
-        <v>42914</v>
+        <v>42916</v>
       </c>
       <c r="C73" s="18"/>
       <c r="D73" s="3"/>
@@ -2637,7 +2637,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="18">
-        <v>42915</v>
+        <v>42917</v>
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="3"/>
@@ -2651,7 +2651,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="18">
-        <v>42916</v>
+        <v>42918</v>
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="3"/>
@@ -2665,7 +2665,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="18">
-        <v>42917</v>
+        <v>42919</v>
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="3"/>
@@ -2679,7 +2679,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="18">
-        <v>42918</v>
+        <v>42920</v>
       </c>
       <c r="C77" s="18"/>
       <c r="D77" s="3"/>
@@ -2693,7 +2693,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="18">
-        <v>42919</v>
+        <v>42921</v>
       </c>
       <c r="C78" s="18"/>
       <c r="D78" s="3"/>
@@ -2707,7 +2707,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="18">
-        <v>42920</v>
+        <v>42922</v>
       </c>
       <c r="C79" s="18"/>
       <c r="D79" s="3"/>
@@ -2721,7 +2721,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="18">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="C80" s="18"/>
       <c r="D80" s="3"/>
@@ -2735,7 +2735,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="18">
-        <v>42922</v>
+        <v>42924</v>
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="3"/>
@@ -2749,7 +2749,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="18">
-        <v>42923</v>
+        <v>42925</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="3"/>
@@ -2763,7 +2763,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="18">
-        <v>42924</v>
+        <v>42926</v>
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="3"/>
@@ -2777,7 +2777,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="18">
-        <v>42925</v>
+        <v>42927</v>
       </c>
       <c r="C84" s="18"/>
       <c r="D84" s="3"/>
@@ -2791,7 +2791,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="18">
-        <v>42926</v>
+        <v>42928</v>
       </c>
       <c r="C85" s="18"/>
       <c r="D85" s="3"/>
@@ -2805,7 +2805,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="18">
-        <v>42927</v>
+        <v>42929</v>
       </c>
       <c r="C86" s="18"/>
       <c r="D86" s="3"/>
@@ -2819,7 +2819,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="18">
-        <v>42928</v>
+        <v>42930</v>
       </c>
       <c r="C87" s="18"/>
       <c r="D87" s="3"/>
@@ -2833,7 +2833,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="18">
-        <v>42929</v>
+        <v>42931</v>
       </c>
       <c r="C88" s="18"/>
       <c r="D88" s="3"/>
@@ -2847,7 +2847,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="18">
-        <v>42930</v>
+        <v>42932</v>
       </c>
       <c r="C89" s="18"/>
       <c r="D89" s="3"/>
@@ -2861,7 +2861,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="18">
-        <v>42931</v>
+        <v>42933</v>
       </c>
       <c r="C90" s="18"/>
       <c r="D90" s="3"/>
@@ -2875,7 +2875,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="18">
-        <v>42932</v>
+        <v>42934</v>
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="3"/>
@@ -2889,7 +2889,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="18">
-        <v>42933</v>
+        <v>42935</v>
       </c>
       <c r="C92" s="18"/>
       <c r="D92" s="3"/>
@@ -2903,7 +2903,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="20">
-        <v>42934</v>
+        <v>42936</v>
       </c>
       <c r="C93" s="20"/>
       <c r="D93" s="3"/>
@@ -2917,7 +2917,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="20">
-        <v>42935</v>
+        <v>42937</v>
       </c>
       <c r="C94" s="20"/>
       <c r="D94" s="3"/>
@@ -2931,7 +2931,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="20">
-        <v>42936</v>
+        <v>42938</v>
       </c>
       <c r="C95" s="20"/>
       <c r="D95" s="3"/>
@@ -2945,7 +2945,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="20">
-        <v>42937</v>
+        <v>42939</v>
       </c>
       <c r="C96" s="20"/>
       <c r="D96" s="3"/>
@@ -2959,7 +2959,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="20">
-        <v>42938</v>
+        <v>42940</v>
       </c>
       <c r="C97" s="20"/>
       <c r="D97" s="3"/>
@@ -2973,7 +2973,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="20">
-        <v>42939</v>
+        <v>42941</v>
       </c>
       <c r="C98" s="20"/>
       <c r="D98" s="3"/>
@@ -2987,7 +2987,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="20">
-        <v>42940</v>
+        <v>42942</v>
       </c>
       <c r="C99" s="20"/>
       <c r="D99" s="3"/>
@@ -3001,7 +3001,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="20">
-        <v>42941</v>
+        <v>42943</v>
       </c>
       <c r="C100" s="20"/>
       <c r="D100" s="3"/>
@@ -3015,7 +3015,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="20">
-        <v>42942</v>
+        <v>42944</v>
       </c>
       <c r="C101" s="20"/>
       <c r="D101" s="3"/>
@@ -3029,7 +3029,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="20">
-        <v>42943</v>
+        <v>42945</v>
       </c>
       <c r="C102" s="20"/>
       <c r="D102" s="3"/>
@@ -3043,7 +3043,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="20">
-        <v>42944</v>
+        <v>42946</v>
       </c>
       <c r="C103" s="20"/>
       <c r="D103" s="3"/>
@@ -3052,47 +3052,19 @@
       <c r="G103" s="3"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A104" s="19">
+    <row r="104" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A104" s="25">
         <v>103</v>
       </c>
-      <c r="B104" s="20">
-        <v>42945</v>
-      </c>
-      <c r="C104" s="20"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="6"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A105" s="19">
-        <v>104</v>
-      </c>
-      <c r="B105" s="20">
-        <v>42946</v>
-      </c>
-      <c r="C105" s="20"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="6"/>
-    </row>
-    <row r="106" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A106" s="25">
-        <v>105</v>
-      </c>
-      <c r="B106" s="21">
+      <c r="B104" s="21">
         <v>42947</v>
       </c>
-      <c r="C106" s="21"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="8"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Progress.xlsx
+++ b/src/Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -290,6 +290,51 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">CCI ix Chapter1 </t>
+  </si>
+  <si>
+    <t>CCI ix Chapter2</t>
+  </si>
+  <si>
+    <t>CCI ix Chapter3</t>
+  </si>
+  <si>
+    <t>CCI ix Chapter4</t>
+  </si>
+  <si>
+    <t>CCI ix Chapter5</t>
+  </si>
+  <si>
+    <t>CCI ix Chapter6</t>
+  </si>
+  <si>
+    <t>CCI ix Chapter7</t>
+  </si>
+  <si>
+    <t>CCI ix Chapter8</t>
+  </si>
+  <si>
+    <t>CCI ix Chapter9</t>
+  </si>
+  <si>
+    <t>CCI ix Chapter10</t>
+  </si>
+  <si>
+    <t>CCI ix Chapter11</t>
+  </si>
+  <si>
+    <t>Design Patterns/Misc</t>
+  </si>
+  <si>
+    <t>Done?</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Collections, Reflection, generics tut</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -299,7 +344,260 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Read ix</t>
+      <t>Read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CCI ix Chapter1 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CCI ix Chapter2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CCI ix Chapter3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CCI ix Chapter4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CCI ix Chapter5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CCI ix Chapter6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CCI ix Chapter7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CCI ix Chapter8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CCI ix Chapter9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CCI ix Chapter10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CCI ix Chapter11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Review ix</t>
     </r>
     <r>
       <rPr>
@@ -322,7 +620,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Read ix</t>
+      <t>Review ix</t>
     </r>
     <r>
       <rPr>
@@ -345,7 +643,53 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Read ix</t>
+      <t>Review ix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Chapter6, 5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Review ix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Chapter2, 8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Review ix</t>
     </r>
     <r>
       <rPr>
@@ -368,7 +712,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Read ix</t>
+      <t>Review ix</t>
     </r>
     <r>
       <rPr>
@@ -391,7 +735,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Read ix</t>
+      <t>Review ix</t>
     </r>
     <r>
       <rPr>
@@ -414,7 +758,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Read ix</t>
+      <t>Review ix</t>
     </r>
     <r>
       <rPr>
@@ -426,356 +770,6 @@
       </rPr>
       <t xml:space="preserve"> Chapter9</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read ix</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Chapter2, 8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read ix</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Chapter6, 5</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">CCI ix Chapter1 </t>
-  </si>
-  <si>
-    <t>CCI ix Chapter2</t>
-  </si>
-  <si>
-    <t>CCI ix Chapter3</t>
-  </si>
-  <si>
-    <t>CCI ix Chapter4</t>
-  </si>
-  <si>
-    <t>CCI ix Chapter5</t>
-  </si>
-  <si>
-    <t>CCI ix Chapter6</t>
-  </si>
-  <si>
-    <t>CCI ix Chapter7</t>
-  </si>
-  <si>
-    <t>CCI ix Chapter8</t>
-  </si>
-  <si>
-    <t>CCI ix Chapter9</t>
-  </si>
-  <si>
-    <t>CCI ix Chapter10</t>
-  </si>
-  <si>
-    <t>CCI ix Chapter11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Review</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CCI ix Chapter1 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Review</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CCI ix Chapter2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Review</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CCI ix Chapter3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Review</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CCI ix Chapter4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Review</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CCI ix Chapter5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Review</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CCI ix Chapter6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Review</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CCI ix Chapter7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Review</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CCI ix Chapter8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Review</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CCI ix Chapter9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Review</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CCI ix Chapter10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Review</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CCI ix Chapter11</t>
-    </r>
-  </si>
-  <si>
-    <t>Design Patterns/Misc</t>
-  </si>
-  <si>
-    <t>Done?</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>only first 7 questions done</t>
-  </si>
-  <si>
-    <t>No hashing algorithm done</t>
-  </si>
-  <si>
-    <t>Collections, Reflection, generics tut</t>
   </si>
 </sst>
 </file>
@@ -1462,10 +1456,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1486,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -1498,60 +1492,54 @@
         <v>3</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="9">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
-        <v>42845</v>
-      </c>
-      <c r="C2" s="23"/>
+      <c r="B2" s="22">
+        <v>42846</v>
+      </c>
+      <c r="C2" s="11"/>
       <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="9">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
-        <v>42846</v>
-      </c>
-      <c r="C3" s="23"/>
+      <c r="B3" s="22">
+        <v>42847</v>
+      </c>
+      <c r="C3" s="11"/>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="9">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
-        <v>42847</v>
-      </c>
-      <c r="C4" s="23"/>
+      <c r="B4" s="22">
+        <v>42848</v>
+      </c>
+      <c r="C4" s="11"/>
       <c r="D4" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1559,33 +1547,31 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="9">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
-        <v>42848</v>
-      </c>
-      <c r="C5" s="10"/>
+      <c r="B5" s="22">
+        <v>42849</v>
+      </c>
+      <c r="C5" s="11"/>
       <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="9">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
-        <v>42849</v>
-      </c>
-      <c r="C6" s="10"/>
+      <c r="B6" s="22">
+        <v>42850</v>
+      </c>
+      <c r="C6" s="11"/>
       <c r="D6" s="3" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1593,15 +1579,15 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="9">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
-        <v>42850</v>
-      </c>
-      <c r="C7" s="10"/>
+      <c r="B7" s="22">
+        <v>42851</v>
+      </c>
+      <c r="C7" s="11"/>
       <c r="D7" s="3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1609,33 +1595,31 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="9">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
-        <v>42851</v>
-      </c>
-      <c r="C8" s="10"/>
+      <c r="B8" s="22">
+        <v>42852</v>
+      </c>
+      <c r="C8" s="11"/>
       <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="9">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
-        <v>42852</v>
-      </c>
-      <c r="C9" s="10"/>
+      <c r="B9" s="22">
+        <v>42853</v>
+      </c>
+      <c r="C9" s="11"/>
       <c r="D9" s="3" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1643,15 +1627,15 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="9">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
-        <v>42853</v>
-      </c>
-      <c r="C10" s="10"/>
+      <c r="B10" s="22">
+        <v>42854</v>
+      </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1659,33 +1643,31 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="9">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
-        <v>42854</v>
-      </c>
-      <c r="C11" s="10"/>
+      <c r="B11" s="22">
+        <v>42855</v>
+      </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="9">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="10">
-        <v>42855</v>
-      </c>
-      <c r="C12" s="10"/>
+      <c r="B12" s="22">
+        <v>42856</v>
+      </c>
+      <c r="C12" s="11"/>
       <c r="D12" s="3" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1693,15 +1675,15 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="9">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="10">
-        <v>42856</v>
-      </c>
-      <c r="C13" s="10"/>
+      <c r="B13" s="22">
+        <v>42857</v>
+      </c>
+      <c r="C13" s="11"/>
       <c r="D13" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1709,33 +1691,31 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="9">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="10">
-        <v>42857</v>
-      </c>
-      <c r="C14" s="10"/>
+      <c r="B14" s="22">
+        <v>42858</v>
+      </c>
+      <c r="C14" s="11"/>
       <c r="D14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="9">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
-        <v>42858</v>
-      </c>
-      <c r="C15" s="10"/>
+      <c r="B15" s="22">
+        <v>42859</v>
+      </c>
+      <c r="C15" s="11"/>
       <c r="D15" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1743,15 +1723,15 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="9">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="10">
-        <v>42859</v>
-      </c>
-      <c r="C16" s="10"/>
+      <c r="B16" s="22">
+        <v>42860</v>
+      </c>
+      <c r="C16" s="11"/>
       <c r="D16" s="3" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1759,15 +1739,15 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="9">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="10">
-        <v>42860</v>
-      </c>
-      <c r="C17" s="10"/>
+      <c r="B17" s="22">
+        <v>42861</v>
+      </c>
+      <c r="C17" s="11"/>
       <c r="D17" s="3" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1775,33 +1755,31 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="9">
+      <c r="A18" s="16">
         <v>17</v>
       </c>
-      <c r="B18" s="10">
-        <v>42861</v>
-      </c>
-      <c r="C18" s="10"/>
+      <c r="B18" s="22">
+        <v>42862</v>
+      </c>
+      <c r="C18" s="11"/>
       <c r="D18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="9">
+      <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19" s="10">
-        <v>42862</v>
-      </c>
-      <c r="C19" s="10"/>
+      <c r="B19" s="22">
+        <v>42863</v>
+      </c>
+      <c r="C19" s="11"/>
       <c r="D19" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1809,15 +1787,15 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="9">
+      <c r="A20" s="16">
         <v>19</v>
       </c>
-      <c r="B20" s="10">
-        <v>42863</v>
-      </c>
-      <c r="C20" s="10"/>
+      <c r="B20" s="22">
+        <v>42864</v>
+      </c>
+      <c r="C20" s="11"/>
       <c r="D20" s="3" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1825,33 +1803,31 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="9">
+      <c r="A21" s="16">
         <v>20</v>
       </c>
-      <c r="B21" s="10">
-        <v>42864</v>
-      </c>
-      <c r="C21" s="10"/>
+      <c r="B21" s="22">
+        <v>42865</v>
+      </c>
+      <c r="C21" s="11"/>
       <c r="D21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="9">
+      <c r="A22" s="16">
         <v>21</v>
       </c>
-      <c r="B22" s="10">
-        <v>42865</v>
-      </c>
-      <c r="C22" s="10"/>
+      <c r="B22" s="22">
+        <v>42866</v>
+      </c>
+      <c r="C22" s="11"/>
       <c r="D22" s="3" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1859,19 +1835,17 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="9">
+      <c r="A23" s="16">
         <v>22</v>
       </c>
-      <c r="B23" s="10">
-        <v>42866</v>
-      </c>
-      <c r="C23" s="10"/>
+      <c r="B23" s="22">
+        <v>42867</v>
+      </c>
+      <c r="C23" s="11"/>
       <c r="D23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="6"/>
@@ -1881,13 +1855,15 @@
         <v>23</v>
       </c>
       <c r="B24" s="10">
-        <v>42867</v>
-      </c>
-      <c r="C24" s="10"/>
+        <v>42868</v>
+      </c>
+      <c r="C24" s="23"/>
       <c r="D24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="6"/>
@@ -1897,11 +1873,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="10">
-        <v>42868</v>
-      </c>
-      <c r="C25" s="10"/>
+        <v>42869</v>
+      </c>
+      <c r="C25" s="23"/>
       <c r="D25" s="3" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1913,15 +1889,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="10">
-        <v>42869</v>
-      </c>
-      <c r="C26" s="10"/>
+        <v>42870</v>
+      </c>
+      <c r="C26" s="23"/>
       <c r="D26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="6"/>
@@ -1931,13 +1905,15 @@
         <v>26</v>
       </c>
       <c r="B27" s="10">
-        <v>42870</v>
+        <v>42871</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="6"/>
@@ -1947,11 +1923,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="10">
-        <v>42871</v>
+        <v>42872</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1959,15 +1935,15 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="16">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="B29" s="22">
-        <v>42872</v>
-      </c>
-      <c r="C29" s="11"/>
+      <c r="B29" s="10">
+        <v>42873</v>
+      </c>
+      <c r="C29" s="10"/>
       <c r="D29" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1975,31 +1951,33 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="16">
+      <c r="A30" s="9">
         <v>29</v>
       </c>
-      <c r="B30" s="22">
-        <v>42873</v>
-      </c>
-      <c r="C30" s="11"/>
+      <c r="B30" s="10">
+        <v>42874</v>
+      </c>
+      <c r="C30" s="10"/>
       <c r="D30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="16">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
-      <c r="B31" s="22">
-        <v>42874</v>
-      </c>
-      <c r="C31" s="11"/>
+      <c r="B31" s="10">
+        <v>42875</v>
+      </c>
+      <c r="C31" s="10"/>
       <c r="D31" s="3" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -2007,15 +1985,15 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="16">
+      <c r="A32" s="9">
         <v>31</v>
       </c>
-      <c r="B32" s="22">
-        <v>42875</v>
-      </c>
-      <c r="C32" s="11"/>
+      <c r="B32" s="10">
+        <v>42876</v>
+      </c>
+      <c r="C32" s="10"/>
       <c r="D32" s="3" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -2023,31 +2001,33 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="16">
+      <c r="A33" s="9">
         <v>32</v>
       </c>
-      <c r="B33" s="22">
-        <v>42876</v>
-      </c>
-      <c r="C33" s="11"/>
+      <c r="B33" s="10">
+        <v>42877</v>
+      </c>
+      <c r="C33" s="10"/>
       <c r="D33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="16">
+      <c r="A34" s="9">
         <v>33</v>
       </c>
-      <c r="B34" s="22">
-        <v>42877</v>
-      </c>
-      <c r="C34" s="11"/>
+      <c r="B34" s="10">
+        <v>42878</v>
+      </c>
+      <c r="C34" s="10"/>
       <c r="D34" s="3" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -2055,15 +2035,15 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="16">
+      <c r="A35" s="9">
         <v>34</v>
       </c>
-      <c r="B35" s="22">
-        <v>42878</v>
-      </c>
-      <c r="C35" s="11"/>
+      <c r="B35" s="10">
+        <v>42879</v>
+      </c>
+      <c r="C35" s="10"/>
       <c r="D35" s="3" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -2071,31 +2051,33 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="16">
+      <c r="A36" s="9">
         <v>35</v>
       </c>
-      <c r="B36" s="22">
-        <v>42879</v>
-      </c>
-      <c r="C36" s="11"/>
+      <c r="B36" s="10">
+        <v>42880</v>
+      </c>
+      <c r="C36" s="10"/>
       <c r="D36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="16">
+      <c r="A37" s="9">
         <v>36</v>
       </c>
-      <c r="B37" s="22">
-        <v>42880</v>
-      </c>
-      <c r="C37" s="11"/>
+      <c r="B37" s="10">
+        <v>42881</v>
+      </c>
+      <c r="C37" s="10"/>
       <c r="D37" s="3" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -2103,15 +2085,15 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="16">
+      <c r="A38" s="9">
         <v>37</v>
       </c>
-      <c r="B38" s="22">
-        <v>42881</v>
-      </c>
-      <c r="C38" s="11"/>
+      <c r="B38" s="10">
+        <v>42882</v>
+      </c>
+      <c r="C38" s="10"/>
       <c r="D38" s="3" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -2119,15 +2101,15 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="16">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
-      <c r="B39" s="22">
-        <v>42882</v>
-      </c>
-      <c r="C39" s="11"/>
+      <c r="B39" s="10">
+        <v>42883</v>
+      </c>
+      <c r="C39" s="10"/>
       <c r="D39" s="3" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -2135,31 +2117,33 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="16">
+      <c r="A40" s="9">
         <v>39</v>
       </c>
-      <c r="B40" s="22">
-        <v>42883</v>
-      </c>
-      <c r="C40" s="11"/>
+      <c r="B40" s="10">
+        <v>42884</v>
+      </c>
+      <c r="C40" s="10"/>
       <c r="D40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="16">
+      <c r="A41" s="9">
         <v>40</v>
       </c>
-      <c r="B41" s="22">
-        <v>42884</v>
-      </c>
-      <c r="C41" s="11"/>
+      <c r="B41" s="10">
+        <v>42885</v>
+      </c>
+      <c r="C41" s="10"/>
       <c r="D41" s="3" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -2167,15 +2151,15 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="16">
+      <c r="A42" s="9">
         <v>41</v>
       </c>
-      <c r="B42" s="22">
-        <v>42885</v>
-      </c>
-      <c r="C42" s="11"/>
+      <c r="B42" s="10">
+        <v>42886</v>
+      </c>
+      <c r="C42" s="10"/>
       <c r="D42" s="3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -2183,31 +2167,33 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="16">
+      <c r="A43" s="9">
         <v>42</v>
       </c>
-      <c r="B43" s="22">
-        <v>42886</v>
-      </c>
-      <c r="C43" s="11"/>
+      <c r="B43" s="10">
+        <v>42887</v>
+      </c>
+      <c r="C43" s="10"/>
       <c r="D43" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="16">
+      <c r="A44" s="9">
         <v>43</v>
       </c>
-      <c r="B44" s="22">
-        <v>42887</v>
-      </c>
-      <c r="C44" s="11"/>
+      <c r="B44" s="10">
+        <v>42888</v>
+      </c>
+      <c r="C44" s="10"/>
       <c r="D44" s="3" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -2215,31 +2201,33 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="16">
+      <c r="A45" s="9">
         <v>44</v>
       </c>
-      <c r="B45" s="22">
-        <v>42888</v>
-      </c>
-      <c r="C45" s="11"/>
+      <c r="B45" s="10">
+        <v>42889</v>
+      </c>
+      <c r="C45" s="10"/>
       <c r="D45" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="16">
+      <c r="A46" s="9">
         <v>45</v>
       </c>
-      <c r="B46" s="22">
-        <v>42889</v>
-      </c>
-      <c r="C46" s="11"/>
+      <c r="B46" s="10">
+        <v>42890</v>
+      </c>
+      <c r="C46" s="10"/>
       <c r="D46" s="3" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -2247,15 +2235,15 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="16">
+      <c r="A47" s="9">
         <v>46</v>
       </c>
-      <c r="B47" s="22">
-        <v>42890</v>
-      </c>
-      <c r="C47" s="11"/>
+      <c r="B47" s="10">
+        <v>42891</v>
+      </c>
+      <c r="C47" s="10"/>
       <c r="D47" s="3" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2263,31 +2251,33 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="16">
+      <c r="A48" s="9">
         <v>47</v>
       </c>
-      <c r="B48" s="22">
-        <v>42891</v>
-      </c>
-      <c r="C48" s="11"/>
+      <c r="B48" s="10">
+        <v>42892</v>
+      </c>
+      <c r="C48" s="10"/>
       <c r="D48" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" s="16">
+      <c r="A49" s="9">
         <v>48</v>
       </c>
-      <c r="B49" s="22">
-        <v>42892</v>
-      </c>
-      <c r="C49" s="11"/>
+      <c r="B49" s="10">
+        <v>42893</v>
+      </c>
+      <c r="C49" s="10"/>
       <c r="D49" s="3" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -2295,15 +2285,15 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="16">
+      <c r="A50" s="9">
         <v>49</v>
       </c>
-      <c r="B50" s="22">
-        <v>42893</v>
-      </c>
-      <c r="C50" s="11"/>
+      <c r="B50" s="10">
+        <v>42894</v>
+      </c>
+      <c r="C50" s="10"/>
       <c r="D50" s="3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -2315,7 +2305,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="18">
-        <v>42894</v>
+        <v>42895</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="3"/>
@@ -2329,7 +2319,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="18">
-        <v>42895</v>
+        <v>42896</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="3"/>
@@ -2343,7 +2333,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="18">
-        <v>42896</v>
+        <v>42897</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="3"/>
@@ -2357,7 +2347,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="18">
-        <v>42897</v>
+        <v>42898</v>
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="3"/>
@@ -2371,7 +2361,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="18">
-        <v>42898</v>
+        <v>42899</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="3"/>
@@ -2385,7 +2375,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="18">
-        <v>42899</v>
+        <v>42900</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="3"/>
@@ -2399,7 +2389,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="18">
-        <v>42900</v>
+        <v>42901</v>
       </c>
       <c r="C57" s="18"/>
       <c r="D57" s="3"/>
@@ -2413,7 +2403,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="18">
-        <v>42901</v>
+        <v>42902</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="3"/>
@@ -2427,7 +2417,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="18">
-        <v>42902</v>
+        <v>42903</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="3"/>
@@ -2441,7 +2431,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="18">
-        <v>42903</v>
+        <v>42904</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="3"/>
@@ -2455,7 +2445,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="18">
-        <v>42904</v>
+        <v>42905</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="3"/>
@@ -2469,7 +2459,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="18">
-        <v>42905</v>
+        <v>42906</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="3"/>
@@ -2483,7 +2473,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="18">
-        <v>42906</v>
+        <v>42907</v>
       </c>
       <c r="C63" s="18"/>
       <c r="D63" s="3"/>
@@ -2497,7 +2487,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="18">
-        <v>42907</v>
+        <v>42908</v>
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="3"/>
@@ -2511,7 +2501,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="18">
-        <v>42908</v>
+        <v>42909</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="3"/>
@@ -2525,7 +2515,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="18">
-        <v>42909</v>
+        <v>42910</v>
       </c>
       <c r="C66" s="18"/>
       <c r="D66" s="3"/>
@@ -2539,7 +2529,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="18">
-        <v>42910</v>
+        <v>42911</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="3"/>
@@ -2553,7 +2543,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="18">
-        <v>42911</v>
+        <v>42912</v>
       </c>
       <c r="C68" s="18"/>
       <c r="D68" s="3"/>
@@ -2567,7 +2557,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="18">
-        <v>42912</v>
+        <v>42913</v>
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="3"/>
@@ -2581,7 +2571,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="18">
-        <v>42913</v>
+        <v>42914</v>
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="3"/>
@@ -2595,7 +2585,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="18">
-        <v>42914</v>
+        <v>42915</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="3"/>
@@ -2609,7 +2599,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="18">
-        <v>42915</v>
+        <v>42916</v>
       </c>
       <c r="C72" s="18"/>
       <c r="D72" s="3"/>
@@ -2623,7 +2613,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="18">
-        <v>42916</v>
+        <v>42917</v>
       </c>
       <c r="C73" s="18"/>
       <c r="D73" s="3"/>
@@ -2637,7 +2627,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="18">
-        <v>42917</v>
+        <v>42918</v>
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="3"/>
@@ -2651,7 +2641,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="18">
-        <v>42918</v>
+        <v>42919</v>
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="3"/>
@@ -2665,7 +2655,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="18">
-        <v>42919</v>
+        <v>42920</v>
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="3"/>
@@ -2679,7 +2669,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="18">
-        <v>42920</v>
+        <v>42921</v>
       </c>
       <c r="C77" s="18"/>
       <c r="D77" s="3"/>
@@ -2693,7 +2683,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="18">
-        <v>42921</v>
+        <v>42922</v>
       </c>
       <c r="C78" s="18"/>
       <c r="D78" s="3"/>
@@ -2707,7 +2697,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="18">
-        <v>42922</v>
+        <v>42923</v>
       </c>
       <c r="C79" s="18"/>
       <c r="D79" s="3"/>
@@ -2721,7 +2711,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="18">
-        <v>42923</v>
+        <v>42924</v>
       </c>
       <c r="C80" s="18"/>
       <c r="D80" s="3"/>
@@ -2735,7 +2725,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="18">
-        <v>42924</v>
+        <v>42925</v>
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="3"/>
@@ -2749,7 +2739,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="18">
-        <v>42925</v>
+        <v>42926</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="3"/>
@@ -2763,7 +2753,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="18">
-        <v>42926</v>
+        <v>42927</v>
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="3"/>
@@ -2777,7 +2767,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="18">
-        <v>42927</v>
+        <v>42928</v>
       </c>
       <c r="C84" s="18"/>
       <c r="D84" s="3"/>
@@ -2791,7 +2781,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="18">
-        <v>42928</v>
+        <v>42929</v>
       </c>
       <c r="C85" s="18"/>
       <c r="D85" s="3"/>
@@ -2805,7 +2795,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="18">
-        <v>42929</v>
+        <v>42930</v>
       </c>
       <c r="C86" s="18"/>
       <c r="D86" s="3"/>
@@ -2819,7 +2809,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="18">
-        <v>42930</v>
+        <v>42931</v>
       </c>
       <c r="C87" s="18"/>
       <c r="D87" s="3"/>
@@ -2833,7 +2823,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="18">
-        <v>42931</v>
+        <v>42932</v>
       </c>
       <c r="C88" s="18"/>
       <c r="D88" s="3"/>
@@ -2847,7 +2837,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="18">
-        <v>42932</v>
+        <v>42933</v>
       </c>
       <c r="C89" s="18"/>
       <c r="D89" s="3"/>
@@ -2861,7 +2851,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="18">
-        <v>42933</v>
+        <v>42934</v>
       </c>
       <c r="C90" s="18"/>
       <c r="D90" s="3"/>
@@ -2875,7 +2865,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="18">
-        <v>42934</v>
+        <v>42935</v>
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="3"/>
@@ -2889,7 +2879,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="18">
-        <v>42935</v>
+        <v>42936</v>
       </c>
       <c r="C92" s="18"/>
       <c r="D92" s="3"/>
@@ -2903,7 +2893,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="20">
-        <v>42936</v>
+        <v>42937</v>
       </c>
       <c r="C93" s="20"/>
       <c r="D93" s="3"/>
@@ -2917,7 +2907,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="20">
-        <v>42937</v>
+        <v>42938</v>
       </c>
       <c r="C94" s="20"/>
       <c r="D94" s="3"/>
@@ -2931,7 +2921,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="20">
-        <v>42938</v>
+        <v>42939</v>
       </c>
       <c r="C95" s="20"/>
       <c r="D95" s="3"/>
@@ -2945,7 +2935,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="20">
-        <v>42939</v>
+        <v>42940</v>
       </c>
       <c r="C96" s="20"/>
       <c r="D96" s="3"/>
@@ -2959,7 +2949,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="20">
-        <v>42940</v>
+        <v>42941</v>
       </c>
       <c r="C97" s="20"/>
       <c r="D97" s="3"/>
@@ -2973,7 +2963,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="20">
-        <v>42941</v>
+        <v>42942</v>
       </c>
       <c r="C98" s="20"/>
       <c r="D98" s="3"/>
@@ -2987,7 +2977,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="20">
-        <v>42942</v>
+        <v>42943</v>
       </c>
       <c r="C99" s="20"/>
       <c r="D99" s="3"/>
@@ -3001,7 +2991,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="20">
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="C100" s="20"/>
       <c r="D100" s="3"/>
@@ -3015,7 +3005,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="20">
-        <v>42944</v>
+        <v>42945</v>
       </c>
       <c r="C101" s="20"/>
       <c r="D101" s="3"/>
@@ -3029,7 +3019,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="20">
-        <v>42945</v>
+        <v>42946</v>
       </c>
       <c r="C102" s="20"/>
       <c r="D102" s="3"/>
@@ -3038,33 +3028,19 @@
       <c r="G102" s="3"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A103" s="19">
+    <row r="103" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A103" s="25">
         <v>102</v>
       </c>
-      <c r="B103" s="20">
-        <v>42946</v>
-      </c>
-      <c r="C103" s="20"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="6"/>
-    </row>
-    <row r="104" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A104" s="25">
-        <v>103</v>
-      </c>
-      <c r="B104" s="21">
+      <c r="B103" s="21">
         <v>42947</v>
       </c>
-      <c r="C104" s="21"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="8"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
